--- a/experiments/ResultTables/public/Cesar 2 GridSearch results.xlsx
+++ b/experiments/ResultTables/public/Cesar 2 GridSearch results.xlsx
@@ -14,284 +14,278 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="138">
   <si>
     <t>GS</t>
   </si>
   <si>
+    <t>KNN</t>
+  </si>
+  <si>
     <t>RFC</t>
   </si>
   <si>
+    <t>SVC</t>
+  </si>
+  <si>
     <t>LR</t>
   </si>
   <si>
-    <t>SVC</t>
-  </si>
-  <si>
-    <t>KNN</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,953</t>
-  </si>
-  <si>
-    <t>0,957</t>
-  </si>
-  <si>
-    <t>0,909</t>
-  </si>
-  <si>
-    <t>0,908</t>
-  </si>
-  <si>
-    <t>0,921</t>
-  </si>
-  <si>
-    <t>0,954</t>
-  </si>
-  <si>
-    <t>0,956</t>
-  </si>
-  <si>
-    <t>0,951</t>
-  </si>
-  <si>
-    <t>0,964</t>
-  </si>
-  <si>
-    <t>0,961</t>
-  </si>
-  <si>
-    <t>0,943</t>
+    <t>zscale</t>
+  </si>
+  <si>
+    <t>noscale</t>
+  </si>
+  <si>
+    <t>minmax</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>0,796</t>
+  </si>
+  <si>
+    <t>0,991</t>
+  </si>
+  <si>
+    <t>0,743</t>
+  </si>
+  <si>
+    <t>0,684</t>
+  </si>
+  <si>
+    <t>0,778</t>
+  </si>
+  <si>
+    <t>0,845</t>
+  </si>
+  <si>
+    <t>0,722</t>
+  </si>
+  <si>
+    <t>0,993</t>
+  </si>
+  <si>
+    <t>0,934</t>
+  </si>
+  <si>
+    <t>0,688</t>
+  </si>
+  <si>
+    <t>0,387</t>
+  </si>
+  <si>
+    <t>0,992</t>
+  </si>
+  <si>
+    <t>0,764</t>
+  </si>
+  <si>
+    <t>0,963</t>
+  </si>
+  <si>
+    <t>0,786</t>
+  </si>
+  <si>
+    <t>0,579</t>
+  </si>
+  <si>
+    <t>0,995</t>
+  </si>
+  <si>
+    <t>0,409</t>
+  </si>
+  <si>
+    <t>0,236</t>
+  </si>
+  <si>
+    <t>0,507</t>
+  </si>
+  <si>
+    <t>0,802</t>
+  </si>
+  <si>
+    <t>0,352</t>
+  </si>
+  <si>
+    <t>0,998</t>
+  </si>
+  <si>
+    <t>0,865</t>
+  </si>
+  <si>
+    <t>0,26</t>
+  </si>
+  <si>
+    <t>0,246</t>
+  </si>
+  <si>
+    <t>0,466</t>
+  </si>
+  <si>
+    <t>0,933</t>
+  </si>
+  <si>
+    <t>0,334</t>
+  </si>
+  <si>
+    <t>0,309</t>
+  </si>
+  <si>
+    <t>0,966</t>
+  </si>
+  <si>
+    <t>0,362</t>
+  </si>
+  <si>
+    <t>0,216</t>
+  </si>
+  <si>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>0,415</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>0,97</t>
+  </si>
+  <si>
+    <t>0,848</t>
+  </si>
+  <si>
+    <t>0,22</t>
+  </si>
+  <si>
+    <t>0,854</t>
+  </si>
+  <si>
+    <t>0,442</t>
+  </si>
+  <si>
+    <t>0,972</t>
+  </si>
+  <si>
+    <t>0,902</t>
+  </si>
+  <si>
+    <t>0,145</t>
+  </si>
+  <si>
+    <t>0,397</t>
+  </si>
+  <si>
+    <t>0,98</t>
+  </si>
+  <si>
+    <t>0,376</t>
+  </si>
+  <si>
+    <t>0,219</t>
+  </si>
+  <si>
+    <t>0,538</t>
+  </si>
+  <si>
+    <t>0,323</t>
+  </si>
+  <si>
+    <t>0,984</t>
+  </si>
+  <si>
+    <t>0,851</t>
+  </si>
+  <si>
+    <t>0,382</t>
+  </si>
+  <si>
+    <t>0,981</t>
+  </si>
+  <si>
+    <t>0,447</t>
+  </si>
+  <si>
+    <t>0,915</t>
+  </si>
+  <si>
+    <t>0,192</t>
+  </si>
+  <si>
+    <t>0,999</t>
+  </si>
+  <si>
+    <t>0,852</t>
+  </si>
+  <si>
+    <t>0,818</t>
+  </si>
+  <si>
+    <t>0,896</t>
+  </si>
+  <si>
+    <t>0,968</t>
+  </si>
+  <si>
+    <t>0,84</t>
+  </si>
+  <si>
+    <t>1,0</t>
   </si>
   <si>
     <t>0,959</t>
   </si>
   <si>
-    <t>0,91</t>
-  </si>
-  <si>
-    <t>0,991</t>
-  </si>
-  <si>
-    <t>0,667</t>
-  </si>
-  <si>
-    <t>0,655</t>
-  </si>
-  <si>
-    <t>0,718</t>
-  </si>
-  <si>
-    <t>0,896</t>
-  </si>
-  <si>
-    <t>0,992</t>
-  </si>
-  <si>
-    <t>0,999</t>
-  </si>
-  <si>
-    <t>0,94</t>
-  </si>
-  <si>
-    <t>0,962</t>
-  </si>
-  <si>
-    <t>0,661</t>
-  </si>
-  <si>
-    <t>0,838</t>
-  </si>
-  <si>
     <t>0,822</t>
   </si>
   <si>
-    <t>0,802</t>
-  </si>
-  <si>
-    <t>0,893</t>
-  </si>
-  <si>
-    <t>0,613</t>
-  </si>
-  <si>
-    <t>0,721</t>
-  </si>
-  <si>
-    <t>0,49</t>
-  </si>
-  <si>
-    <t>0,489</t>
-  </si>
-  <si>
-    <t>0,57</t>
-  </si>
-  <si>
-    <t>0,71</t>
-  </si>
-  <si>
-    <t>0,634</t>
-  </si>
-  <si>
-    <t>0,644</t>
-  </si>
-  <si>
-    <t>0,627</t>
-  </si>
-  <si>
-    <t>0,733</t>
-  </si>
-  <si>
-    <t>0,703</t>
-  </si>
-  <si>
-    <t>0,508</t>
-  </si>
-  <si>
-    <t>0,67</t>
-  </si>
-  <si>
-    <t>0,882</t>
-  </si>
-  <si>
-    <t>0,345</t>
-  </si>
-  <si>
-    <t>0,747</t>
-  </si>
-  <si>
-    <t>0,792</t>
-  </si>
-  <si>
-    <t>0,547</t>
-  </si>
-  <si>
-    <t>0,541</t>
-  </si>
-  <si>
-    <t>0,624</t>
-  </si>
-  <si>
-    <t>0,776</t>
-  </si>
-  <si>
-    <t>0,761</t>
-  </si>
-  <si>
-    <t>0,773</t>
-  </si>
-  <si>
-    <t>0,739</t>
-  </si>
-  <si>
-    <t>0,826</t>
-  </si>
-  <si>
-    <t>0,804</t>
-  </si>
-  <si>
-    <t>0,561</t>
-  </si>
-  <si>
-    <t>0,728</t>
-  </si>
-  <si>
-    <t>0,462</t>
-  </si>
-  <si>
-    <t>0,774</t>
-  </si>
-  <si>
-    <t>0,988</t>
-  </si>
-  <si>
-    <t>0,966</t>
-  </si>
-  <si>
-    <t>0,965</t>
-  </si>
-  <si>
-    <t>0,968</t>
-  </si>
-  <si>
-    <t>0,987</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>0,994</t>
-  </si>
-  <si>
-    <t>0,996</t>
-  </si>
-  <si>
-    <t>0,995</t>
-  </si>
-  <si>
-    <t>0,963</t>
-  </si>
-  <si>
-    <t>0,98</t>
-  </si>
-  <si>
-    <t>0,97</t>
-  </si>
-  <si>
-    <t>0,986</t>
+    <t>0,254</t>
+  </si>
+  <si>
+    <t>0,856</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>9,0</t>
   </si>
   <si>
     <t>15,0</t>
   </si>
   <si>
-    <t>9,0</t>
-  </si>
-  <si>
-    <t>30,0</t>
-  </si>
-  <si>
     <t>300,0</t>
   </si>
   <si>
     <t>200,0</t>
   </si>
   <si>
-    <t>10000,0</t>
-  </si>
-  <si>
-    <t>0,1</t>
+    <t>100000,0</t>
   </si>
   <si>
     <t>10,0</t>
   </si>
   <si>
-    <t>100000,0</t>
-  </si>
-  <si>
-    <t>1000000,0</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>rbf</t>
+    <t>0,001</t>
   </si>
   <si>
     <t>sigmoid</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
     <t>experiment index</t>
   </si>
   <si>
@@ -310,6 +304,9 @@
     <t>specter_threshold</t>
   </si>
   <si>
+    <t>signal_scaler</t>
+  </si>
+  <si>
     <t>resampling_number</t>
   </si>
   <si>
@@ -415,6 +412,12 @@
     <t>Statistics: detrended_fluctuation</t>
   </si>
   <si>
+    <t>Hyperparameters: n_neighbors</t>
+  </si>
+  <si>
+    <t>Hyperparameters: p</t>
+  </si>
+  <si>
     <t>Hyperparameters: max_depth</t>
   </si>
   <si>
@@ -425,12 +428,6 @@
   </si>
   <si>
     <t>Hyperparameters: kernel</t>
-  </si>
-  <si>
-    <t>Hyperparameters: n_neighbors</t>
-  </si>
-  <si>
-    <t>Hyperparameters: p</t>
   </si>
 </sst>
 </file>
@@ -823,7 +820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU17"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,193 +832,197 @@
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="15.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="32.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="26.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="39.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="41.28515625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="27.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="26.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="36.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="38.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="33.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="30.7109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="33.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="36.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="47.28515625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="35.28515625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="39.7109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="29.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="50.28515625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="39.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="44.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="30.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="32.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="41.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="27.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="36.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="38.28515625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="33.7109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="33.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="36.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="47.28515625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="35.28515625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="39.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="29.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="50.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="42.7109375" style="1" customWidth="1"/>
     <col min="44" max="44" width="27.7109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="35.28515625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="42.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="39.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="44.28515625" style="1" customWidth="1"/>
     <col min="47" max="47" width="27.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="35.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1" ht="22" customHeight="1">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="22" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>138</v>
-      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1040,29 +1041,29 @@
       <c r="F2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>5</v>
@@ -1146,13 +1147,16 @@
         <v>5</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1171,29 +1175,29 @@
       <c r="F3" s="1">
         <v>500</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
         <v>100</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>5</v>
@@ -1276,11 +1280,17 @@
       <c r="AO3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="AT3" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:48">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1291,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -1299,29 +1309,29 @@
       <c r="F4" s="1">
         <v>500</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>5</v>
@@ -1404,14 +1414,17 @@
       <c r="AO4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>87</v>
+      <c r="AP4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1419,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -1430,29 +1443,29 @@
       <c r="F5" s="1">
         <v>500</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>5</v>
@@ -1535,11 +1548,17 @@
       <c r="AO5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AR5" s="1" t="s">
-        <v>84</v>
+      <c r="AP5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:48">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1547,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1558,44 +1577,44 @@
       <c r="F6" s="1">
         <v>500</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>5</v>
@@ -1663,14 +1682,17 @@
       <c r="AO6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AT6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>90</v>
+      <c r="AP6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:48">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1689,29 +1711,29 @@
       <c r="F7" s="1">
         <v>500</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>5</v>
@@ -1794,14 +1816,14 @@
       <c r="AO7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AT7" s="1" t="s">
-        <v>69</v>
+      <c r="AP7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:48">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -1820,44 +1842,44 @@
       <c r="F8" s="1">
         <v>500</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>5</v>
@@ -1926,13 +1948,16 @@
         <v>5</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:48">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1940,40 +1965,40 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
         <v>500</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>5</v>
@@ -2057,13 +2082,16 @@
         <v>5</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:48">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2071,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2082,44 +2110,44 @@
       <c r="F10" s="1">
         <v>500</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>5</v>
@@ -2187,14 +2215,14 @@
       <c r="AO10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AR10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>88</v>
+      <c r="AP10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:48">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2208,34 +2236,34 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
         <v>500</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
         <v>100</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>5</v>
@@ -2318,14 +2346,17 @@
       <c r="AO11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AR11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS11" s="1" t="s">
+      <c r="AP11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:48">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2333,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -2344,29 +2375,29 @@
       <c r="F12" s="1">
         <v>500</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
         <v>100</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>5</v>
@@ -2449,14 +2480,17 @@
       <c r="AO12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AP12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AR12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:48">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2464,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
@@ -2475,29 +2509,29 @@
       <c r="F13" s="1">
         <v>500</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>5</v>
@@ -2580,14 +2614,17 @@
       <c r="AO13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AP13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AT13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU13" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:48">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2595,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -2606,44 +2643,44 @@
       <c r="F14" s="1">
         <v>500</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1">
         <v>100</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>5</v>
@@ -2711,11 +2748,17 @@
       <c r="AO14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AP14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AR14" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:48">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2729,34 +2772,34 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
         <v>500</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
         <v>100</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>5</v>
@@ -2839,11 +2882,17 @@
       <c r="AO15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AR15" s="1" t="s">
-        <v>86</v>
+      <c r="AP15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:48">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2851,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>5</v>
@@ -2862,29 +2911,29 @@
       <c r="F16" s="1">
         <v>500</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
         <v>100</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>5</v>
@@ -2968,10 +3017,10 @@
         <v>5</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:47">
@@ -2988,34 +3037,34 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1">
         <v>500</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
         <v>100</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>5</v>
@@ -3098,11 +3147,11 @@
       <c r="AO17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AT17" s="1" t="s">
-        <v>69</v>
+      <c r="AP17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
